--- a/data-folder/Données_groupe_14.xlsx
+++ b/data-folder/Données_groupe_14.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données14" sheetId="2" r:id="rId1"/>
@@ -520,35 +520,35 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15.120000000000001</v>
+        <v>5.4399999999999995</v>
       </c>
       <c r="B18">
         <v>93</v>
       </c>
       <c r="C18">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>49.33</v>
+        <v>27.01</v>
       </c>
       <c r="B19">
         <v>72</v>
       </c>
       <c r="C19">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>61.370000000000005</v>
+        <v>27.439999999999998</v>
       </c>
       <c r="B20">
         <v>76</v>
       </c>
       <c r="C20">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,24 +586,24 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>33.839999999999996</v>
+        <v>24.12</v>
       </c>
       <c r="B24">
         <v>63</v>
       </c>
       <c r="C24">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>64.84</v>
+        <v>23.189999999999998</v>
       </c>
       <c r="B25">
         <v>80</v>
       </c>
       <c r="C25">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>70.989999999999995</v>
+        <v>62.639999999999993</v>
       </c>
       <c r="B30">
         <v>53</v>
       </c>
       <c r="C30">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,13 +674,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>87.929999999999993</v>
+        <v>42.99</v>
       </c>
       <c r="B32">
         <v>73</v>
       </c>
       <c r="C32">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,24 +707,24 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>31.130000000000003</v>
+        <v>4.74</v>
       </c>
       <c r="B35">
         <v>98</v>
       </c>
       <c r="C35">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7.89</v>
+        <v>6.5600000000000005</v>
       </c>
       <c r="B36">
         <v>63</v>
       </c>
       <c r="C36">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,24 +740,24 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>61.61</v>
+        <v>32.51</v>
       </c>
       <c r="B38">
         <v>73</v>
       </c>
       <c r="C38">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>71.150000000000006</v>
+        <v>14.82</v>
       </c>
       <c r="B39">
         <v>90</v>
       </c>
       <c r="C39">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,13 +806,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>57.099999999999994</v>
+        <v>42.19</v>
       </c>
       <c r="B44">
         <v>62</v>
       </c>
       <c r="C44">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,35 +828,35 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>58.819999999999993</v>
+        <v>43.72</v>
       </c>
       <c r="B46">
         <v>60</v>
       </c>
       <c r="C46">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>67.47999999999999</v>
+        <v>26.88</v>
       </c>
       <c r="B47">
         <v>78</v>
       </c>
       <c r="C47">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>71.97</v>
+        <v>12.83</v>
       </c>
       <c r="B48">
         <v>93</v>
       </c>
       <c r="C48">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,13 +872,13 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>9.02</v>
+        <v>7.6499999999999995</v>
       </c>
       <c r="B50">
         <v>56</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,79 +927,79 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>67.14</v>
+        <v>25.490000000000002</v>
       </c>
       <c r="B55">
         <v>80</v>
       </c>
       <c r="C55">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>53.99</v>
+        <v>14.469999999999999</v>
       </c>
       <c r="B56">
         <v>88</v>
       </c>
       <c r="C56">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>85.38</v>
+        <v>33.54</v>
       </c>
       <c r="B57">
         <v>77</v>
       </c>
       <c r="C57">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>44.57</v>
+        <v>21.279999999999998</v>
       </c>
       <c r="B58">
         <v>75</v>
       </c>
       <c r="C58">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>13.69</v>
+        <v>6.69</v>
       </c>
       <c r="B59">
         <v>78</v>
       </c>
       <c r="C59">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>41.07</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="B60">
         <v>90</v>
       </c>
       <c r="C60">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>80.69</v>
+        <v>30.14</v>
       </c>
       <c r="B61">
         <v>78</v>
       </c>
       <c r="C61">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,13 +1026,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>59.35</v>
+        <v>28.62</v>
       </c>
       <c r="B64">
         <v>73</v>
       </c>
       <c r="C64">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,13 +1103,13 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>37.840000000000003</v>
+        <v>6.4399999999999995</v>
       </c>
       <c r="B71">
         <v>98</v>
       </c>
       <c r="C71">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,13 +1125,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>50.1</v>
+        <v>10.209999999999999</v>
       </c>
       <c r="B73">
         <v>94</v>
       </c>
       <c r="C73">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,35 +1158,35 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>45.92</v>
+        <v>23.880000000000003</v>
       </c>
       <c r="B76">
         <v>73</v>
       </c>
       <c r="C76">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>12.21</v>
+        <v>9.39</v>
       </c>
       <c r="B77">
         <v>61</v>
       </c>
       <c r="C77">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>74.290000000000006</v>
+        <v>13</v>
       </c>
       <c r="B78">
         <v>93</v>
       </c>
       <c r="C78">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,13 +1202,13 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>49.47</v>
+        <v>19.12</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
       <c r="C80">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,24 +1235,24 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>55.230000000000004</v>
+        <v>7.6899999999999995</v>
       </c>
       <c r="B83">
         <v>94</v>
       </c>
       <c r="C83">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>39.4</v>
+        <v>18.72</v>
       </c>
       <c r="B84">
         <v>79</v>
       </c>
       <c r="C84">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,35 +1279,35 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>43.9</v>
+        <v>11.84</v>
       </c>
       <c r="B87">
         <v>88</v>
       </c>
       <c r="C87">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>92.03</v>
+        <v>87.22999999999999</v>
       </c>
       <c r="B88">
         <v>50</v>
       </c>
       <c r="C88">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>74.87</v>
+        <v>12.790000000000001</v>
       </c>
       <c r="B89">
         <v>92</v>
       </c>
       <c r="C89">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,13 +1334,13 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>89.31</v>
+        <v>45.04</v>
       </c>
       <c r="B92">
         <v>71</v>
       </c>
       <c r="C92">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,24 +1356,24 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>38.96</v>
+        <v>22.759999999999998</v>
       </c>
       <c r="B94">
         <v>72</v>
       </c>
       <c r="C94">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>99.76</v>
+        <v>21.51</v>
       </c>
       <c r="B95">
         <v>88</v>
       </c>
       <c r="C95">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,24 +1411,24 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>57.110000000000007</v>
+        <v>45.79</v>
       </c>
       <c r="B99">
         <v>57</v>
       </c>
       <c r="C99">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>13.569999999999999</v>
+        <v>2.59</v>
       </c>
       <c r="B100">
         <v>95</v>
       </c>
       <c r="C100">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
